--- a/ise6100-giac-enterprises-work-schedule.xlsx
+++ b/ise6100-giac-enterprises-work-schedule.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Firefox Project - Work Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MyData">'Firefox Project - Work Schedule'!$A$1:$AZ$6000</definedName>
+    <definedName name="MyData">'Firefox Project - Work Schedule'!$A$1:$AV$6005</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>June</t>
   </si>
@@ -67,16 +67,73 @@
     <t>Final Paper</t>
   </si>
   <si>
-    <t xml:space="preserve">      Write Section on Browser Vulnerabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Gather Statistics on Browser Vulnerabilities</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Establish VM Baseline Configuration</t>
   </si>
   <si>
     <t xml:space="preserve">      Build VMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Contribute to Project Plan Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Submit Project Plan &amp; Work Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Research Fuzzers - Sully, Peach, Codenomicon</t>
+  </si>
+  <si>
+    <t>Jon Mark</t>
+  </si>
+  <si>
+    <t>Build Virtual Machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Research Browser Privacy - Firefox vs. Opera</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Sully Fuzzing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Peach Fuzzing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Codenomicon Fuzzing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Firefox Outbound Connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Opera Outbound Connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Research Firefox Enterprise Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Research Firefox Policy Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fuzzing Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Privacy Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Enterprise Management Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Editing, Polishing, Proofreading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Submit Final Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Create CIO Presentation of Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Establish Conclusion</t>
   </si>
 </sst>
 </file>
@@ -262,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -292,25 +349,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -331,11 +375,412 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -439,6 +884,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2923054</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="95250"/>
+          <a:ext cx="2894479" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,67 +1233,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="AK37" sqref="AK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" style="1" customWidth="1"/>
-    <col min="2" max="40" width="5.28515625" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="44" style="1" customWidth="1"/>
+    <col min="2" max="36" width="5.28515625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="28" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="27" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="43"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
       <c r="B2" s="7">
         <v>7</v>
       </c>
@@ -894,20 +1396,9 @@
       <c r="AJ2" s="7">
         <v>11</v>
       </c>
-      <c r="AK2" s="7">
-        <v>12</v>
-      </c>
-      <c r="AL2" s="7">
-        <v>13</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>14</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK2" s="43"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -917,9 +1408,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="10"/>
       <c r="Y3" s="11"/>
-      <c r="AN3" s="11"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK3" s="43"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -931,9 +1422,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="10"/>
       <c r="Y4" s="4"/>
-      <c r="AN4" s="4"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK4" s="43"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -945,611 +1436,788 @@
       <c r="E5" s="3"/>
       <c r="F5" s="10"/>
       <c r="Y5" s="4"/>
-      <c r="AN5" s="4"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK5" s="43"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
       <c r="Y6" s="4"/>
-      <c r="AN6" s="4"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK6" s="43"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="10"/>
       <c r="Y7" s="4"/>
-      <c r="AN7" s="4"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="AK7" s="43"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="11"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="43"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
       <c r="Y9" s="4"/>
-      <c r="AN9" s="4"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="AK9" s="43"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="10"/>
       <c r="Y10" s="4"/>
-      <c r="AN10" s="4"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="AK10" s="43"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="Y11" s="4"/>
-      <c r="AN11" s="4"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
+      <c r="AK11" s="43"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="11"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="43"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="G13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="32"/>
       <c r="Y13" s="4"/>
-      <c r="AN13" s="4"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="AK13" s="43"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
+      <c r="I14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="Y14" s="4"/>
-      <c r="AN14" s="4"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="Y15" s="4"/>
-      <c r="AN15" s="4"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="18"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="11"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK14" s="43"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="43"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="12"/>
+      <c r="L16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="Y16" s="4"/>
+      <c r="AK16" s="43"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="26"/>
+      <c r="L17" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
       <c r="Y17" s="4"/>
-      <c r="AN17" s="4"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK17" s="43"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10"/>
-      <c r="I18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="L18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="35"/>
       <c r="Y18" s="4"/>
-      <c r="AN18" s="4"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="AK18" s="43"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="10"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
       <c r="Y19" s="4"/>
-      <c r="AN19" s="4"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
-      <c r="Y20" s="4"/>
-      <c r="AN20" s="4"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="11"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AK19" s="43"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="43"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="O21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Y21" s="4"/>
+      <c r="AK21" s="43"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="10"/>
-      <c r="K22" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="Q22" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="32"/>
       <c r="Y22" s="4"/>
-      <c r="AN22" s="4"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="AK22" s="43"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="10"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="S23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="32"/>
       <c r="Y23" s="4"/>
-      <c r="AN23" s="4"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="AK23" s="43"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="10"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="O24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
       <c r="Y24" s="4"/>
-      <c r="AN24" s="4"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="AK24" s="43"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="10"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="R25" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
       <c r="Y25" s="4"/>
-      <c r="AN25" s="4"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
+      <c r="AK25" s="43"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="11"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="43"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="U27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="4"/>
+      <c r="AK27" s="43"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="U28" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="4"/>
+      <c r="AK28" s="43"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="E30" s="23" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="U29" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="4"/>
+      <c r="AK29" s="43"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="10"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="3"/>
+      <c r="AK30" s="43"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="10"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AK31" s="43"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="43"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="43"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="43"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="E35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="Z1:AN1"/>
+  <mergeCells count="26">
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="Z1:AJ1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="U1:Y1"/>
     <mergeCell ref="G1:T1"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:P18"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AZ6000">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:AV9000">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Jon Mark"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Seth"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Team"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Rod"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ise6100-giac-enterprises-work-schedule.xlsx
+++ b/ise6100-giac-enterprises-work-schedule.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ubahmapk/Dropbox/Documents/STI/ISE6100/giac-ent-firefox/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="17480"/>
   </bookViews>
   <sheets>
     <sheet name="Firefox Project - Work Schedule" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,15 @@
   <definedNames>
     <definedName name="MyData">'Firefox Project - Work Schedule'!$A$1:$AV$6005</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -197,7 +210,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -207,7 +220,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -216,11 +229,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -229,18 +242,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,28 +282,28 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -299,7 +312,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -310,7 +323,7 @@
         <color rgb="FFC00000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -360,427 +373,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -992,9 +637,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1027,9 +672,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1236,61 +881,61 @@
   <dimension ref="A1:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK37" sqref="AK37"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44" style="1" customWidth="1"/>
-    <col min="2" max="36" width="5.28515625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="36" width="5.33203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="23" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="36"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="22" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="43"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="31"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
       <c r="B2" s="7">
         <v>7</v>
       </c>
@@ -1396,9 +1041,9 @@
       <c r="AJ2" s="7">
         <v>11</v>
       </c>
-      <c r="AK2" s="43"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK2" s="31"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -1408,9 +1053,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="10"/>
       <c r="Y3" s="11"/>
-      <c r="AK3" s="43"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK3" s="31"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1422,9 +1067,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="10"/>
       <c r="Y4" s="4"/>
-      <c r="AK4" s="43"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK4" s="31"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1436,37 +1081,37 @@
       <c r="E5" s="3"/>
       <c r="F5" s="10"/>
       <c r="Y5" s="4"/>
-      <c r="AK5" s="43"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK5" s="31"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
       <c r="Y6" s="4"/>
-      <c r="AK6" s="43"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK6" s="31"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="10"/>
       <c r="Y7" s="4"/>
-      <c r="AK7" s="43"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK7" s="31"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -1505,37 +1150,37 @@
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
-      <c r="AK8" s="43"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK8" s="31"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
       <c r="Y9" s="4"/>
-      <c r="AK9" s="43"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK9" s="31"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="10"/>
       <c r="Y10" s="4"/>
-      <c r="AK10" s="43"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK10" s="31"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1547,16 +1192,16 @@
         <v>10</v>
       </c>
       <c r="Y11" s="4"/>
-      <c r="AK11" s="43"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK11" s="31"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -1588,9 +1233,9 @@
       <c r="AH12" s="17"/>
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17"/>
-      <c r="AK12" s="43"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK12" s="31"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1599,14 +1244,14 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="32"/>
+      <c r="H13" s="35"/>
       <c r="Y13" s="4"/>
-      <c r="AK13" s="43"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK13" s="31"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1615,15 +1260,15 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
       <c r="Y14" s="4"/>
-      <c r="AK14" s="43"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK14" s="31"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>12</v>
       </c>
@@ -1662,9 +1307,9 @@
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
-      <c r="AK15" s="43"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK15" s="31"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1673,19 +1318,19 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="12"/>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="Y16" s="4"/>
-      <c r="AK16" s="43"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK16" s="31"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1694,15 +1339,15 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="10"/>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
       <c r="Y17" s="4"/>
-      <c r="AK17" s="43"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK17" s="31"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1711,18 +1356,18 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="10"/>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="35"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="24"/>
       <c r="Y18" s="4"/>
-      <c r="AK18" s="43"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK18" s="31"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1736,16 +1381,16 @@
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
       <c r="Y19" s="4"/>
-      <c r="AK19" s="43"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK19" s="31"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>13</v>
       </c>
@@ -1784,9 +1429,9 @@
       <c r="AH20" s="17"/>
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
-      <c r="AK20" s="43"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK20" s="31"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1798,14 +1443,14 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="32"/>
+      <c r="P21" s="35"/>
       <c r="Y21" s="4"/>
-      <c r="AK21" s="43"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK21" s="31"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1817,14 +1462,14 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="32"/>
+      <c r="R22" s="35"/>
       <c r="Y22" s="4"/>
-      <c r="AK22" s="43"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK22" s="31"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1836,14 +1481,14 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="S23" s="32" t="s">
+      <c r="S23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="32"/>
+      <c r="T23" s="35"/>
       <c r="Y23" s="4"/>
-      <c r="AK23" s="43"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK23" s="31"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1855,17 +1500,17 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="Y24" s="4"/>
-      <c r="AK24" s="43"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK24" s="31"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1874,15 +1519,15 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="10"/>
-      <c r="R25" s="26" t="s">
+      <c r="R25" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
       <c r="Y25" s="4"/>
-      <c r="AK25" s="43"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK25" s="31"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>14</v>
       </c>
@@ -1921,9 +1566,9 @@
       <c r="AH26" s="17"/>
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
-      <c r="AK26" s="43"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK26" s="31"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1936,16 +1581,16 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="U27" s="32" t="s">
+      <c r="U27" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
       <c r="Y27" s="4"/>
-      <c r="AK27" s="43"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK27" s="31"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -1958,16 +1603,16 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="U28" s="32" t="s">
+      <c r="U28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
       <c r="Y28" s="4"/>
-      <c r="AK28" s="43"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK28" s="31"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>34</v>
       </c>
@@ -1980,16 +1625,16 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="U29" s="26" t="s">
+      <c r="U29" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
       <c r="Y29" s="4"/>
-      <c r="AK29" s="43"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK29" s="31"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
@@ -2006,14 +1651,14 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
-      <c r="Y30" s="36" t="s">
+      <c r="Y30" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z30" s="35"/>
+      <c r="Z30" s="24"/>
       <c r="AA30" s="3"/>
-      <c r="AK30" s="43"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK30" s="31"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2031,14 +1676,14 @@
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="37" t="s">
+      <c r="Z31" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AK31" s="43"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AK31" s="31"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>15</v>
       </c>
@@ -2077,10 +1722,10 @@
       <c r="AH32" s="17"/>
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
-      <c r="AK32" s="43"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="AK32" s="31"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="3"/>
@@ -2108,84 +1753,81 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="30" t="s">
+      <c r="AA33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
-      <c r="AK33" s="43"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
+      <c r="AK33" s="31"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="38"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="43"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="E35" s="29" t="s">
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="31"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="E35" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="Z1:AJ1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="G1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="B6:C6"/>
@@ -2193,14 +1835,17 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="Z1:AJ1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="G1:T1"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AV9000">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
